--- a/data/output/FV2504_FV2410/UTILMD/55024.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55024.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="203">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="203">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -752,6 +752,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U76" totalsRowShown="0">
+  <autoFilter ref="A1:U76"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1041,7 +1071,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4582,5 +4615,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55024.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55024.xlsx
@@ -958,7 +958,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -981,6 +981,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -989,6 +992,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1431,7 +1437,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1797,7 +1803,7 @@
         <v>185</v>
       </c>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2045,7 +2051,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N14" s="2"/>
@@ -2247,7 +2253,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N18" s="2" t="s">
@@ -2555,7 +2561,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -2755,7 +2761,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -3129,7 +3135,7 @@
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -3437,7 +3443,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -3619,26 +3625,26 @@
       <c r="B45" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8" t="s">
+      <c r="E45" s="9"/>
+      <c r="F45" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8" t="s">
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="K45" s="8" t="s">
+      <c r="K45" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="L45" s="9" t="s">
+      <c r="L45" s="10" t="s">
         <v>193</v>
       </c>
       <c r="M45" s="5"/>
@@ -3656,33 +3662,33 @@
       <c r="A46" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G46" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8" t="s">
+      <c r="H46" s="9"/>
+      <c r="I46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J46" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="9" t="s">
+      <c r="J46" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="K46" s="9"/>
+      <c r="L46" s="10" t="s">
         <v>193</v>
       </c>
       <c r="M46" s="5"/>
@@ -3700,33 +3706,33 @@
       <c r="A47" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8" t="s">
+      <c r="H47" s="9"/>
+      <c r="I47" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J47" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="K47" s="8"/>
-      <c r="L47" s="9" t="s">
+      <c r="J47" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="K47" s="9"/>
+      <c r="L47" s="10" t="s">
         <v>193</v>
       </c>
       <c r="M47" s="5"/>
@@ -3754,29 +3760,29 @@
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="10" t="s">
+      <c r="L48" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="M48" s="11" t="s">
+      <c r="M48" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="N48" s="11" t="s">
+      <c r="N48" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O48" s="11" t="s">
+      <c r="O48" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11" t="s">
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11" t="s">
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="V48" s="11"/>
+      <c r="V48" s="13"/>
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="5" t="s">
@@ -3792,35 +3798,35 @@
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="10" t="s">
+      <c r="L49" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="M49" s="11" t="s">
+      <c r="M49" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="N49" s="11" t="s">
+      <c r="N49" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O49" s="11" t="s">
+      <c r="O49" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P49" s="11" t="s">
+      <c r="P49" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="Q49" s="11" t="s">
+      <c r="Q49" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="R49" s="11" t="s">
+      <c r="R49" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11" t="s">
+      <c r="S49" s="13"/>
+      <c r="T49" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="U49" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="V49" s="11"/>
+      <c r="U49" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="V49" s="13"/>
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="5" t="s">
@@ -3836,57 +3842,57 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="10" t="s">
+      <c r="L50" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="M50" s="11" t="s">
+      <c r="M50" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="N50" s="11" t="s">
+      <c r="N50" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O50" s="11" t="s">
+      <c r="O50" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P50" s="11" t="s">
+      <c r="P50" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="Q50" s="11" t="s">
+      <c r="Q50" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="R50" s="11" t="s">
+      <c r="R50" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11" t="s">
+      <c r="S50" s="13"/>
+      <c r="T50" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="U50" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="V50" s="11"/>
+      <c r="U50" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="V50" s="13"/>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E51" s="5"/>
+      <c r="E51" s="2"/>
       <c r="F51" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5" t="s">
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2" t="s">
         <v>182</v>
       </c>
       <c r="K51" s="6" t="s">
@@ -3895,23 +3901,23 @@
       <c r="L51" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="M51" s="5" t="s">
+      <c r="M51" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N51" s="5" t="s">
+      <c r="N51" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O51" s="5" t="s">
+      <c r="O51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P51" s="5"/>
+      <c r="P51" s="2"/>
       <c r="Q51" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5" t="s">
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2" t="s">
         <v>182</v>
       </c>
       <c r="V51" s="6" t="s">
@@ -4095,25 +4101,25 @@
       <c r="V54" s="5"/>
     </row>
     <row r="55" spans="1:22">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E55" s="5"/>
+      <c r="E55" s="2"/>
       <c r="F55" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
       <c r="J55" s="6" t="s">
         <v>183</v>
       </c>
@@ -4123,22 +4129,22 @@
       <c r="L55" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="M55" s="5" t="s">
+      <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N55" s="5" t="s">
+      <c r="N55" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O55" s="5" t="s">
+      <c r="O55" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P55" s="5"/>
+      <c r="P55" s="2"/>
       <c r="Q55" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
       <c r="U55" s="6" t="s">
         <v>202</v>
       </c>
@@ -4283,7 +4289,7 @@
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -4483,7 +4489,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -4671,22 +4677,22 @@
       <c r="B66" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8" t="s">
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="K66" s="8" t="s">
+      <c r="K66" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="L66" s="9" t="s">
+      <c r="L66" s="10" t="s">
         <v>193</v>
       </c>
       <c r="M66" s="5"/>
@@ -4704,27 +4710,27 @@
       <c r="A67" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8" t="s">
+      <c r="E67" s="9"/>
+      <c r="F67" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8" t="s">
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="K67" s="8"/>
-      <c r="L67" s="9" t="s">
+      <c r="K67" s="9"/>
+      <c r="L67" s="10" t="s">
         <v>193</v>
       </c>
       <c r="M67" s="5"/>
@@ -4742,33 +4748,33 @@
       <c r="A68" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G68" s="8" t="s">
+      <c r="G68" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8" t="s">
+      <c r="H68" s="9"/>
+      <c r="I68" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J68" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="K68" s="8"/>
-      <c r="L68" s="9" t="s">
+      <c r="J68" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="K68" s="9"/>
+      <c r="L68" s="10" t="s">
         <v>193</v>
       </c>
       <c r="M68" s="5"/>
@@ -4789,20 +4795,20 @@
       <c r="B69" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8" t="s">
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="K69" s="8"/>
-      <c r="L69" s="9" t="s">
+      <c r="K69" s="9"/>
+      <c r="L69" s="10" t="s">
         <v>193</v>
       </c>
       <c r="M69" s="5"/>
@@ -4820,27 +4826,27 @@
       <c r="A70" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8" t="s">
+      <c r="E70" s="9"/>
+      <c r="F70" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8" t="s">
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="K70" s="8"/>
-      <c r="L70" s="9" t="s">
+      <c r="K70" s="9"/>
+      <c r="L70" s="10" t="s">
         <v>193</v>
       </c>
       <c r="M70" s="5"/>
@@ -4858,33 +4864,33 @@
       <c r="A71" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G71" s="8" t="s">
+      <c r="G71" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8" t="s">
+      <c r="H71" s="9"/>
+      <c r="I71" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J71" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="K71" s="8"/>
-      <c r="L71" s="9" t="s">
+      <c r="J71" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="K71" s="9"/>
+      <c r="L71" s="10" t="s">
         <v>193</v>
       </c>
       <c r="M71" s="5"/>
@@ -4902,33 +4908,33 @@
       <c r="A72" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G72" s="8" t="s">
+      <c r="G72" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8" t="s">
+      <c r="H72" s="9"/>
+      <c r="I72" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="J72" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="K72" s="8"/>
-      <c r="L72" s="9" t="s">
+      <c r="J72" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="K72" s="9"/>
+      <c r="L72" s="10" t="s">
         <v>193</v>
       </c>
       <c r="M72" s="5"/>
@@ -4946,31 +4952,31 @@
       <c r="A73" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8" t="s">
+      <c r="F73" s="9"/>
+      <c r="G73" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8" t="s">
+      <c r="H73" s="9"/>
+      <c r="I73" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="J73" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="K73" s="8"/>
-      <c r="L73" s="9" t="s">
+      <c r="J73" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="K73" s="9"/>
+      <c r="L73" s="10" t="s">
         <v>193</v>
       </c>
       <c r="M73" s="5"/>
@@ -4985,48 +4991,48 @@
       <c r="V73" s="5"/>
     </row>
     <row r="74" spans="1:22">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5" t="s">
+      <c r="C74" s="2"/>
+      <c r="D74" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E74" s="5"/>
+      <c r="E74" s="2"/>
       <c r="F74" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5" t="s">
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="K74" s="5"/>
+      <c r="K74" s="2"/>
       <c r="L74" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="M74" s="5" t="s">
+      <c r="M74" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5" t="s">
+      <c r="N74" s="2"/>
+      <c r="O74" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P74" s="5"/>
+      <c r="P74" s="2"/>
       <c r="Q74" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
-      <c r="U74" s="5" t="s">
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="V74" s="5"/>
+      <c r="V74" s="2"/>
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="5" t="s">
